--- a/jayud-mall/jayud-mall-admin/src/main/resources/template/counter_list.xlsx
+++ b/jayud-mall/jayud-mall-admin/src/main/resources/template/counter_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">      装柜清单（南京佳裕达物流有限公司）</t>
   </si>
@@ -37,6 +37,9 @@
     <t>进仓编号</t>
   </si>
   <si>
+    <t>亚马逊引用ID</t>
+  </si>
+  <si>
     <t>FBA号</t>
   </si>
   <si>
@@ -85,7 +88,10 @@
     <t>{a.warehouseNo}</t>
   </si>
   <si>
-    <t>{a.fabNo}</t>
+    <t>{a.amazonReferenceId}</t>
+  </si>
+  <si>
+    <t>{a.extensionNumber}</t>
   </si>
   <si>
     <t>{a.cartons}</t>
@@ -135,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -176,8 +182,69 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,7 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,53 +274,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,14 +288,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -283,38 +320,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,13 +353,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,6 +461,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -372,156 +528,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,6 +558,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -559,17 +576,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,30 +602,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,19 +624,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,10 +659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,133 +671,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1165,10 +1171,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1176,28 +1182,28 @@
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
     <col min="3" max="4" width="15.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.625" style="1" customWidth="1"/>
-    <col min="18" max="16383" width="9" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="9" style="1"/>
+    <col min="5" max="6" width="14.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="10" customHeight="1" spans="5:6">
+    <row r="1" s="1" customFormat="1" ht="10" customHeight="1" spans="5:7">
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="2:17">
+    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="2:18">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1216,8 +1222,9 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="32" customHeight="1" spans="2:17">
+    <row r="3" s="1" customFormat="1" ht="32" customHeight="1" spans="2:18">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1225,7 +1232,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1236,8 +1243,9 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="32" customHeight="1" spans="2:17">
+    <row r="4" s="1" customFormat="1" ht="32" customHeight="1" spans="2:18">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1245,7 +1253,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -1256,8 +1264,9 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="32" customHeight="1" spans="2:17">
+    <row r="5" s="1" customFormat="1" ht="32" customHeight="1" spans="2:18">
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1297,7 +1306,7 @@
       <c r="N5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P5" s="13" t="s">
@@ -1306,66 +1315,72 @@
       <c r="Q5" s="13" t="s">
         <v>18</v>
       </c>
+      <c r="R5" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:17">
+    <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:18">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="G6" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="H6" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="P6" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="Q6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:17">
+    <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:18">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -1374,17 +1389,18 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="15"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="15"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:17">
+    <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:18">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -1393,39 +1409,41 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="15"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:17">
+    <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:18">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="G9" s="11"/>
       <c r="H9" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:R3"/>
+    <mergeCell ref="B4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
